--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductMedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7208B98B-1205-43FF-B6EE-297F29B03C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9FB49-DBBD-40D9-A62B-DD859B2EA0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21840" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -731,15 +731,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.PerfRepayCode
-1:扣薪件
-2:特約件
-3:滯繳件
-4:人事特約件
-5:房貸扣薪件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>回應檔失敗原因參考：ref. CdCode.ProcCode 處理說明
 員工扣薪：004 + ReturnCode(2)
 01:成功
@@ -747,12 +738,23 @@
 17:扣款不足 (扣款金額 !=0 且 扣款金額＜應扣金額)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>CdCode.PerfRepayCode
+1:扣薪件
+2:特約件
+3:滯繳件
+4:人事特約件
+5:房貸扣薪件
+8:帳管費
+9:火險費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1403,11 +1405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1418,7 +1420,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -1433,7 +1435,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
@@ -1446,7 +1448,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1463,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1474,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1487,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -1498,7 +1500,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1511,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="15" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="15" customFormat="1">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1551,7 +1553,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="32.4">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="15" customFormat="1">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1591,7 +1593,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1609,7 +1611,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="48.6">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="129.6">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1646,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1667,7 +1669,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1685,7 +1687,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1703,7 +1705,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1721,7 +1723,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1739,7 +1741,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1757,7 +1759,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1775,7 +1777,7 @@
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="81">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1792,10 +1794,10 @@
         <v>2</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1835,7 +1837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1853,7 +1855,7 @@
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1871,7 +1873,7 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1887,7 +1889,7 @@
       <c r="E27" s="23"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -1905,7 +1907,7 @@
       </c>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -1921,7 +1923,7 @@
       <c r="E29" s="23"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -1964,7 +1966,7 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.77734375" style="1" customWidth="1"/>
@@ -1972,7 +1974,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1991,7 +1993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>145</v>
       </c>
@@ -2061,7 +2063,7 @@
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -2081,7 +2083,7 @@
     <col min="17" max="17" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="36" t="s">
         <v>77</v>
       </c>
@@ -2103,7 +2105,7 @@
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="26" t="s">
         <v>79</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="32.4">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="J6" s="26">
@@ -2341,7 +2343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="26">
         <v>4</v>
       </c>
@@ -2391,7 +2393,7 @@
       </c>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="46.8">
       <c r="A8" s="26">
         <v>5</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="26">
         <v>6</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="J10" s="26">
@@ -2527,7 +2529,7 @@
       </c>
       <c r="Q10" s="27"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="26">
         <v>7</v>
       </c>
@@ -2581,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="26">
         <v>8</v>
       </c>
@@ -2633,7 +2635,7 @@
       </c>
       <c r="Q12" s="27"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="26">
         <v>9</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="J14" s="26">
@@ -2717,7 +2719,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="J15" s="26">
@@ -2747,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="26">
         <v>10</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="26">
         <v>11</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="26">
         <v>12</v>
       </c>
@@ -2905,7 +2907,7 @@
       </c>
       <c r="Q18" s="27"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="26">
         <v>13</v>
       </c>
@@ -2955,7 +2957,7 @@
       </c>
       <c r="Q19" s="27"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="26">
         <v>14</v>
       </c>
@@ -3005,7 +3007,7 @@
       </c>
       <c r="Q20" s="27"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="26">
         <v>15</v>
       </c>
@@ -3055,7 +3057,7 @@
       </c>
       <c r="Q21" s="27"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="26">
         <v>16</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductMedia.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E9FB49-DBBD-40D9-A62B-DD859B2EA0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21840" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="157">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -365,39 +364,6 @@
   <si>
     <t>X</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>西元年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>YYYY/MM</t>
-    </r>
   </si>
   <si>
     <t>OccUnit</t>
@@ -749,11 +715,24 @@
 9:火險費</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>申請年月</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元年/月YYYY/MM
+日曆日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元年/月YYYY/MM</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -1067,7 +1046,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1158,23 +1137,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1210,23 +1172,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1402,10 +1347,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1539,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>32</v>
@@ -1558,10 +1503,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>29</v>
@@ -1571,7 +1516,7 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1">
@@ -1628,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="129.6">
@@ -1636,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>63</v>
@@ -1648,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1782,7 +1727,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
@@ -1794,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1814,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1834,7 +1779,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1958,7 +1903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1995,13 +1940,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2020,32 +1965,32 @@
         <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2056,11 +2001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2155,15 +2100,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="31.2">
       <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>24</v>
+      <c r="C3" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>88</v>
@@ -2177,8 +2122,8 @@
       <c r="G3" s="26">
         <v>7</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>89</v>
+      <c r="H3" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="J3" s="26">
         <v>1</v>
@@ -2187,7 +2132,7 @@
         <v>87</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>88</v>
@@ -2202,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2210,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>88</v>
@@ -2230,16 +2175,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="26">
         <v>2</v>
       </c>
       <c r="K4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>90</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>91</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>88</v>
@@ -2256,7 +2201,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="32.4">
@@ -2264,13 +2209,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="E5" s="26">
         <v>10</v>
@@ -2284,19 +2229,19 @@
         <v>23</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J5" s="26">
         <v>3</v>
       </c>
       <c r="K5" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="N5" s="26">
         <v>10</v>
@@ -2310,7 +2255,7 @@
         <v>23</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2320,13 +2265,13 @@
         <v>4</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="N6" s="26">
         <v>2</v>
@@ -2340,7 +2285,7 @@
         <v>25</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2348,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>25</v>
@@ -2372,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>25</v>
@@ -2398,10 +2343,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>88</v>
@@ -2418,19 +2363,19 @@
         <v>44</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="26">
         <v>6</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="26">
         <v>2</v>
@@ -2444,7 +2389,7 @@
         <v>37</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2452,10 +2397,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>88</v>
@@ -2472,16 +2417,16 @@
         <v>55</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J9" s="26">
         <v>7</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="26" t="s">
         <v>88</v>
@@ -2498,7 +2443,7 @@
         <v>44</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2508,10 +2453,10 @@
         <v>8</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M10" s="26" t="s">
         <v>88</v>
@@ -2534,13 +2479,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>110</v>
-      </c>
       <c r="D11" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="26">
         <v>10</v>
@@ -2560,13 +2505,13 @@
         <v>9</v>
       </c>
       <c r="K11" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>110</v>
-      </c>
       <c r="M11" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N11" s="26">
         <v>10</v>
@@ -2588,10 +2533,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>88</v>
@@ -2608,16 +2553,16 @@
         <v>105</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" s="26">
         <v>10</v>
       </c>
       <c r="K12" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M12" s="26" t="s">
         <v>88</v>
@@ -2640,10 +2585,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>88</v>
@@ -2660,16 +2605,16 @@
         <v>106</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J13" s="26">
         <v>11</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M13" s="26" t="s">
         <v>88</v>
@@ -2686,7 +2631,7 @@
         <v>110</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2696,10 +2641,10 @@
         <v>12</v>
       </c>
       <c r="K14" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="26" t="s">
         <v>88</v>
@@ -2716,7 +2661,7 @@
         <v>124</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2726,13 +2671,13 @@
         <v>13</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N15" s="26">
         <v>10</v>
@@ -2754,13 +2699,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>118</v>
-      </c>
       <c r="D16" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="26">
         <v>8</v>
@@ -2774,19 +2719,19 @@
         <v>114</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J16" s="26">
         <v>14</v>
       </c>
       <c r="K16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="27" t="s">
-        <v>118</v>
-      </c>
       <c r="M16" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N16" s="26">
         <v>8</v>
@@ -2800,7 +2745,7 @@
         <v>142</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2808,13 +2753,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>121</v>
-      </c>
       <c r="D17" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="26">
         <v>6</v>
@@ -2828,19 +2773,19 @@
         <v>120</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J17" s="26">
         <v>15</v>
       </c>
       <c r="K17" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="27" t="s">
-        <v>121</v>
-      </c>
       <c r="M17" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N17" s="26">
         <v>6</v>
@@ -2854,7 +2799,7 @@
         <v>148</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2862,13 +2807,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>124</v>
-      </c>
       <c r="D18" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="26">
         <v>1</v>
@@ -2886,13 +2831,13 @@
         <v>16</v>
       </c>
       <c r="K18" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="L18" s="27" t="s">
-        <v>124</v>
-      </c>
       <c r="M18" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N18" s="26">
         <v>1</v>
@@ -2912,13 +2857,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>126</v>
-      </c>
       <c r="D19" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="26">
         <v>1</v>
@@ -2936,13 +2881,13 @@
         <v>17</v>
       </c>
       <c r="K19" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="27" t="s">
-        <v>126</v>
-      </c>
       <c r="M19" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N19" s="26">
         <v>1</v>
@@ -2962,13 +2907,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>128</v>
-      </c>
       <c r="D20" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="26">
         <v>7</v>
@@ -2986,13 +2931,13 @@
         <v>18</v>
       </c>
       <c r="K20" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="27" t="s">
-        <v>128</v>
-      </c>
       <c r="M20" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N20" s="26">
         <v>7</v>
@@ -3012,13 +2957,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="26">
         <v>3</v>
@@ -3036,13 +2981,13 @@
         <v>19</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N21" s="26">
         <v>3</v>
@@ -3062,10 +3007,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>88</v>
@@ -3082,16 +3027,16 @@
         <v>174</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J22" s="26">
         <v>20</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>88</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductMedia.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductMedia.xlsx
@@ -1,36 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466950A9-EB69-4B87-80B4-5DE2F4939F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="156">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,10 +219,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -247,10 +235,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -728,12 +712,15 @@
     <t>西元年/月YYYY/MM</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -931,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,10 +934,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -962,9 +949,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -976,9 +960,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,7 +1027,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1062,9 +1043,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1102,9 +1083,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,7 +1120,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,7 +1155,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1347,29 +1328,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1380,83 +1361,83 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="35" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1475,416 +1456,413 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="21">
+        <v>8</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="21">
+        <v>6</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="21">
+        <v>7</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="21">
+        <v>2</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="17">
+        <v>14</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="17">
+        <v>6</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="17">
+        <v>6</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="17">
+        <v>10</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="21">
+        <v>8</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="17">
+        <v>14</v>
+      </c>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="17">
+        <v>3</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="21">
+        <v>8</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="23">
-        <v>8</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="32.4">
-      <c r="A10" s="19">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="19" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="E25" s="21">
+        <v>6</v>
+      </c>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E26" s="21">
         <v>6</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="23">
-        <v>7</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" ht="48.6">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="23">
-        <v>2</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="129.6">
-      <c r="A14" s="19">
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>19</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>20</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="21">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="19">
-        <v>14</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>21</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>22</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="21">
         <v>6</v>
       </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="19">
-        <v>6</v>
-      </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="23">
-        <v>8</v>
-      </c>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="19">
-        <v>14</v>
-      </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="81">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="19">
-        <v>2</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
-        <v>15</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="19">
-        <v>3</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="23">
-        <v>8</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>17</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="23">
-        <v>6</v>
-      </c>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>18</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="23">
-        <v>6</v>
-      </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>20</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="23">
-        <v>6</v>
-      </c>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="19">
-        <v>21</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="19">
-        <v>22</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="23">
-        <v>6</v>
-      </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1903,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1911,7 +1889,7 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="106.77734375" style="1" customWidth="1"/>
@@ -1919,7 +1897,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1930,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1938,18 +1916,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1957,40 +1935,40 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2001,14 +1979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -2028,1031 +2006,1031 @@
     <col min="17" max="17" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="J1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="B2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="J2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="C3" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="26" t="s">
+      <c r="E3" s="24">
+        <v>7</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>7</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="24">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="L3" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="31.2">
-      <c r="A3" s="26">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="N3" s="24">
+        <v>7</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="26">
-        <v>7</v>
-      </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="G3" s="26">
-        <v>7</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="26">
-        <v>1</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" s="26">
-        <v>7</v>
-      </c>
-      <c r="O3" s="26">
-        <v>0</v>
-      </c>
-      <c r="P3" s="26">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="26">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="24">
         <v>6</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <f>G3</f>
         <v>7</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <f>E4+F4</f>
         <v>13</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="26">
+      <c r="H4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="24">
         <v>2</v>
       </c>
-      <c r="K4" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="26" t="s">
+      <c r="K4" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="26">
+      <c r="M4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="24">
         <v>6</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="24">
         <f>P3</f>
         <v>7</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="24">
         <f>N4+O4</f>
         <v>13</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="32.4">
-      <c r="A5" s="26">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>10</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <f>G4</f>
         <v>13</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <f>E5+F5</f>
         <v>23</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="26">
+      <c r="H5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="24">
         <v>3</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N5" s="26">
+      <c r="N5" s="24">
         <v>10</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="24">
         <f t="shared" ref="O5:O22" si="0">P4</f>
         <v>13</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="24">
         <f t="shared" ref="P5:P22" si="1">N5+O5</f>
         <v>23</v>
       </c>
-      <c r="Q5" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="J6" s="26">
+      <c r="Q5" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="J6" s="24">
         <v>4</v>
       </c>
-      <c r="K6" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="26">
+      <c r="K6" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="24">
         <v>2</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="24">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Q6" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="26">
+      <c r="Q6" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="24">
         <v>10</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <f>G5</f>
         <v>23</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <f>E7+F7</f>
         <v>33</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="J7" s="26">
+      <c r="H7" s="24"/>
+      <c r="J7" s="24">
         <v>5</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="27" t="s">
+      <c r="K7" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N7" s="26">
+      <c r="M7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="24">
         <v>10</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="24">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="1:17" ht="46.8">
-      <c r="A8" s="26">
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="B8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="24">
         <v>11</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <f>G7</f>
         <v>33</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <f>E8+F8</f>
         <v>44</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="26">
+      <c r="H8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="24">
         <v>6</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="27" t="s">
+      <c r="K8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="26">
+      <c r="M8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="24">
         <v>2</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="24">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="Q8" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="26">
+      <c r="Q8" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="B9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="24">
         <v>11</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <f>G8</f>
         <v>44</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <f>E9+F9</f>
         <v>55</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="26">
+      <c r="H9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="24">
         <v>7</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" s="26">
+      <c r="K9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="24">
         <v>7</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="24">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="24">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="Q9" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="J10" s="26">
+      <c r="Q9" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="J10" s="24">
         <v>8</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="26">
+      <c r="K10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="24">
         <v>15</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="24">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="24">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="Q10" s="27"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="26">
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="B11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="24">
         <v>10</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <f>G9</f>
         <v>55</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="24">
         <f>E11+F11</f>
         <v>65</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <v>0</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <v>9</v>
       </c>
-      <c r="K11" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="26">
+      <c r="K11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="24">
         <v>10</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="24">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="24">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="26">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="26">
+      <c r="B12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="24">
         <v>40</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <f>G11</f>
         <v>65</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="24">
         <f>E12+F12</f>
         <v>105</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="26">
+      <c r="H12" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="24">
         <v>10</v>
       </c>
-      <c r="K12" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="26">
+      <c r="K12" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="24">
         <v>40</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="24">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="24">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="26">
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="B13" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="24">
         <v>1</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="24">
         <f>G12</f>
         <v>105</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="24">
         <f>E13+F13</f>
         <v>106</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="26">
+      <c r="H13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="24">
         <v>11</v>
       </c>
-      <c r="K13" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="26">
+      <c r="K13" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="24">
         <v>1</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="24">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="24">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="Q13" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="J14" s="26">
+      <c r="Q13" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="J14" s="24">
         <v>12</v>
       </c>
-      <c r="K14" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="26">
+      <c r="K14" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="24">
         <v>14</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="24">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="24">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="Q14" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="J15" s="26">
+      <c r="Q14" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="J15" s="24">
         <v>13</v>
       </c>
-      <c r="K15" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="26">
+      <c r="K15" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="24">
         <v>10</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="24">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="24">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="26">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="B16" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="24">
         <v>8</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <f>G13</f>
         <v>106</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="24">
         <f t="shared" ref="G16:G22" si="2">E16+F16</f>
         <v>114</v>
       </c>
-      <c r="H16" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="26">
+      <c r="H16" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="24">
         <v>14</v>
       </c>
-      <c r="K16" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="26">
+      <c r="K16" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="24">
         <v>8</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="24">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="24">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>11</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="26">
-        <v>11</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="D17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="24">
         <v>6</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <f t="shared" ref="F17:F22" si="3">G16</f>
         <v>114</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="24">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="26">
+      <c r="H17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="24">
         <v>15</v>
       </c>
-      <c r="K17" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="26">
+      <c r="K17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="24">
         <v>6</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="24">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="24">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="26">
-        <v>12</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="24">
         <v>1</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="24">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="J18" s="26">
+      <c r="H18" s="24"/>
+      <c r="J18" s="24">
         <v>16</v>
       </c>
-      <c r="K18" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="26">
+      <c r="K18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="24">
         <v>1</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="24">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="24">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="Q18" s="27"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="26">
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>13</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="B19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="24">
         <v>1</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="24">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="J19" s="26">
+      <c r="H19" s="24"/>
+      <c r="J19" s="24">
         <v>17</v>
       </c>
-      <c r="K19" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="26">
+      <c r="K19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="24">
         <v>1</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="24">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="Q19" s="27"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="26">
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
         <v>14</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="B20" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="24">
         <v>7</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="24">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="24">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="J20" s="26">
+      <c r="H20" s="24"/>
+      <c r="J20" s="24">
         <v>18</v>
       </c>
-      <c r="K20" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" s="26">
+      <c r="K20" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="24">
         <v>7</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="24">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="24">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="Q20" s="27"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="26">
+      <c r="Q20" s="25"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
         <v>15</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="D21" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="24">
         <v>3</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="24">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="J21" s="26">
+      <c r="H21" s="24"/>
+      <c r="J21" s="24">
         <v>19</v>
       </c>
-      <c r="K21" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="L21" s="27" t="s">
+      <c r="K21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" s="26">
+      <c r="M21" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="24">
         <v>3</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="24">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="24">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="26">
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
         <v>16</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="B22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="24">
         <v>42</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="24">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="24">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="26">
+      <c r="H22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="24">
         <v>20</v>
       </c>
-      <c r="K22" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N22" s="26">
+      <c r="K22" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" s="24">
         <v>42</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="24">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="24">
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
